--- a/掲示用原本-2020-08.xlsx
+++ b/掲示用原本-2020-08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoki/meat_shift/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92734907-2150-4745-8566-D7D5180B965B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8454F984-4C11-4345-AC6F-3FD7C37ED771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="61">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -366,7 +366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,16 +441,8 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF00B0F0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,12 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,16 +948,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -990,8 +970,50 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1008,19 +1030,70 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,97 +1105,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1468,8 +1472,8 @@
   </sheetPr>
   <dimension ref="B1:AP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1489,12 +1493,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:42" ht="30" customHeight="1">
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="2:42" ht="30" customHeight="1" thickBot="1">
       <c r="J2" s="6"/>
@@ -1506,15 +1510,15 @@
       <c r="AC2" s="25"/>
     </row>
     <row r="3" spans="2:42" ht="40.25" customHeight="1" thickBot="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="7">
         <v>16</v>
       </c>
@@ -1526,34 +1530,34 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="51"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
       <c r="W3" s="7">
         <v>16</v>
       </c>
       <c r="X3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="80" t="s">
+      <c r="Y3" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" s="81" t="s">
+      <c r="Z3" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="81" t="s">
+      <c r="AA3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="81" t="s">
+      <c r="AB3" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="82" t="s">
+      <c r="AC3" s="50" t="s">
         <v>46</v>
       </c>
       <c r="AE3" s="11" t="s">
@@ -1574,19 +1578,19 @@
       <c r="AJ3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="40" t="s">
+      <c r="AL3" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AM3" s="40" t="s">
+      <c r="AM3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AN3" s="40" t="s">
+      <c r="AN3" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AO3" s="40" t="s">
+      <c r="AO3" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AP3" s="40" t="s">
+      <c r="AP3" s="39" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1597,19 +1601,19 @@
       <c r="C4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="87" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="3">
@@ -1629,19 +1633,19 @@
       <c r="Q4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="81" t="s">
+      <c r="T4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="50" t="s">
         <v>56</v>
       </c>
       <c r="W4" s="3">
@@ -1650,55 +1654,47 @@
       <c r="X4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA4" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB4" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC4" s="47"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="45"/>
       <c r="AE4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AF4" s="24">
         <f>COUNTIF($P$3:$AC$18,"東")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG4" s="24">
         <f>COUNTIF($B$3:$O$18,"東")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH4" s="24">
         <f t="shared" ref="AH4:AH15" si="0">SUM(AF4:AG4)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AI4" s="24">
         <f>COUNTIF($R$4:$T$18,"東")+COUNTIF($Y$3:$AA$18,"東")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ4" s="24">
         <f>COUNTIF($U$4:$V$18,"東")+COUNTIF($AB$3:$AC$18,"東")</f>
         <v>3</v>
       </c>
-      <c r="AL4" s="40" t="s">
+      <c r="AL4" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AM4" s="40" t="s">
+      <c r="AM4" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AN4" s="40" t="s">
+      <c r="AN4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AO4" s="40" t="s">
+      <c r="AO4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AP4" s="40"/>
+      <c r="AP4" s="39"/>
     </row>
     <row r="5" spans="2:42" ht="40.25" customHeight="1">
       <c r="B5" s="3">
@@ -1729,74 +1725,74 @@
       <c r="Q5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="83" t="s">
+      <c r="R5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="84" t="s">
+      <c r="S5" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="84" t="s">
+      <c r="T5" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="84" t="s">
+      <c r="U5" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="54"/>
+      <c r="V5" s="46"/>
       <c r="W5" s="3">
         <v>18</v>
       </c>
       <c r="X5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="83" t="s">
+      <c r="Y5" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="Z5" s="84" t="s">
+      <c r="Z5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AA5" s="88" t="s">
+      <c r="AA5" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" s="88" t="s">
+      <c r="AB5" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AC5" s="47"/>
+      <c r="AC5" s="45"/>
       <c r="AE5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AF5" s="24">
         <f>COUNTIF($P$3:$AC$18,"寺山")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AG5" s="24">
         <f>COUNTIF($B$3:$O$18,"寺山")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH5" s="24">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AI5" s="24">
         <f>COUNTIF($R$4:$T$18,"寺山")+COUNTIF($Y$3:$AA$18,"寺山")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ5" s="24">
         <f>COUNTIF($U$4:$V$18,"寺山")+COUNTIF($AB$3:$AC$18,"寺山")</f>
-        <v>3</v>
-      </c>
-      <c r="AL5" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AM5" s="40" t="s">
+      <c r="AM5" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AN5" s="40" t="s">
+      <c r="AN5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AO5" s="40" t="s">
+      <c r="AO5" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AP5" s="40"/>
+      <c r="AP5" s="39"/>
     </row>
     <row r="6" spans="2:42" ht="40.25" customHeight="1">
       <c r="B6" s="3">
@@ -1827,66 +1823,66 @@
       <c r="Q6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="85"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="87"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="55"/>
       <c r="W6" s="3">
         <v>19</v>
       </c>
       <c r="X6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="83" t="s">
+      <c r="Y6" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="84" t="s">
+      <c r="Z6" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AA6" s="88" t="s">
+      <c r="AA6" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" s="88" t="s">
+      <c r="AB6" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="AC6" s="47"/>
+      <c r="AC6" s="45"/>
       <c r="AE6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AF6" s="24">
         <f>COUNTIF($P$3:$AC$18,"岡崎")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG6" s="24">
         <f>COUNTIF($B$3:$O$18,"岡崎")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH6" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI6" s="24">
         <f>COUNTIF($R$4:$T$18,"岡崎")+COUNTIF($Y$3:$AA$18,"岡崎")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ6" s="24">
         <f>COUNTIF($U$4:$V$18,"岡崎")+COUNTIF($AB$3:$AC$18,"岡崎")</f>
         <v>1</v>
       </c>
-      <c r="AL6" s="40" t="s">
+      <c r="AL6" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AM6" s="40" t="s">
+      <c r="AM6" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AN6" s="40" t="s">
+      <c r="AN6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AO6" s="40" t="s">
+      <c r="AO6" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AP6" s="40"/>
+      <c r="AP6" s="39"/>
     </row>
     <row r="7" spans="2:42" ht="40.25" customHeight="1">
       <c r="B7" s="3">
@@ -1917,38 +1913,38 @@
       <c r="Q7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="83" t="s">
+      <c r="R7" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="84" t="s">
+      <c r="S7" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="T7" s="88" t="s">
+      <c r="T7" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="88" t="s">
+      <c r="U7" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="V7" s="47"/>
+      <c r="V7" s="45"/>
       <c r="W7" s="3">
         <v>20</v>
       </c>
       <c r="X7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Y7" s="83" t="s">
+      <c r="Y7" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="84" t="s">
+      <c r="Z7" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AA7" s="88" t="s">
+      <c r="AA7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="AB7" s="88" t="s">
+      <c r="AB7" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AC7" s="47"/>
+      <c r="AC7" s="45"/>
       <c r="AE7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1958,33 +1954,33 @@
       </c>
       <c r="AG7" s="24">
         <f>COUNTIF($B$3:$O$18,"中道")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH7" s="24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI7" s="24">
         <f>COUNTIF($R$4:$T$18,"中道")+COUNTIF($Y$3:$AA$18,"中道")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ7" s="24">
         <f>COUNTIF($U$4:$V$18,"中道")+COUNTIF($AB$3:$AC$18,"中道")</f>
-        <v>4</v>
-      </c>
-      <c r="AL7" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AM7" s="40" t="s">
+      <c r="AM7" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AN7" s="40" t="s">
+      <c r="AN7" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AO7" s="40" t="s">
+      <c r="AO7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AP7" s="40"/>
+      <c r="AP7" s="39"/>
     </row>
     <row r="8" spans="2:42" ht="40.25" customHeight="1">
       <c r="B8" s="3">
@@ -2015,74 +2011,74 @@
       <c r="Q8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="83" t="s">
+      <c r="R8" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="S8" s="84" t="s">
+      <c r="S8" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="88" t="s">
+      <c r="T8" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="88" t="s">
+      <c r="U8" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="V8" s="47"/>
+      <c r="V8" s="45"/>
       <c r="W8" s="3">
         <v>21</v>
       </c>
       <c r="X8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Y8" s="83" t="s">
+      <c r="Y8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="Z8" s="84" t="s">
+      <c r="Z8" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="88" t="s">
+      <c r="AA8" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="AB8" s="88" t="s">
+      <c r="AB8" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="AC8" s="47"/>
+      <c r="AC8" s="45"/>
       <c r="AE8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AF8" s="24">
         <f>COUNTIF($P$3:$AC$18,"金平")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" s="24">
         <f>COUNTIF($B$3:$O$18,"金平")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH8" s="24">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI8" s="24">
         <f>COUNTIF($R$4:$T$18,"金平")+COUNTIF($Y$3:$AA$18,"金平")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ8" s="24">
         <f>COUNTIF($U$4:$V$18,"金平")+COUNTIF($AB$3:$AC$18,"金平")</f>
         <v>1</v>
       </c>
-      <c r="AL8" s="40" t="s">
+      <c r="AL8" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AM8" s="40" t="s">
+      <c r="AM8" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AN8" s="40" t="s">
+      <c r="AN8" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AO8" s="40" t="s">
+      <c r="AO8" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AP8" s="40"/>
+      <c r="AP8" s="39"/>
     </row>
     <row r="9" spans="2:42" ht="40.25" customHeight="1">
       <c r="B9" s="3">
@@ -2095,56 +2091,66 @@
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="39"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="3">
         <v>22</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62"/>
+      <c r="K9" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="92" t="s">
+        <v>8</v>
+      </c>
       <c r="P9" s="3">
         <v>6</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="83" t="s">
+      <c r="R9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="84" t="s">
+      <c r="S9" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="88" t="s">
+      <c r="T9" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="U9" s="88" t="s">
+      <c r="U9" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="V9" s="47"/>
+      <c r="V9" s="45"/>
       <c r="W9" s="3">
         <v>22</v>
       </c>
       <c r="X9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Y9" s="83" t="s">
+      <c r="Y9" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="Z9" s="84" t="s">
+      <c r="Z9" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="AA9" s="84" t="s">
+      <c r="AA9" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AB9" s="84" t="s">
+      <c r="AB9" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AC9" s="89" t="s">
+      <c r="AC9" s="57" t="s">
         <v>55</v>
       </c>
       <c r="AE9" s="4" t="s">
@@ -2152,7 +2158,7 @@
       </c>
       <c r="AF9" s="24">
         <f>COUNTIF($P$3:$AC$18,"中林")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG9" s="24">
         <f>COUNTIF($B$3:$O$18,"中林")</f>
@@ -2160,29 +2166,29 @@
       </c>
       <c r="AH9" s="24">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI9" s="24">
         <f>COUNTIF($R$4:$T$18,"中林")+COUNTIF($Y$3:$AA$18,"中林")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ9" s="24">
         <f>COUNTIF($U$4:$V$18,"中林")+COUNTIF($AB$3:$AC$18,"中林")</f>
-        <v>3</v>
-      </c>
-      <c r="AL9" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL9" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AM9" s="40" t="s">
+      <c r="AM9" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AN9" s="40" t="s">
+      <c r="AN9" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AO9" s="40" t="s">
+      <c r="AO9" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AP9" s="40" t="s">
+      <c r="AP9" s="39" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2215,38 +2221,38 @@
       <c r="Q10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="83" t="s">
+      <c r="R10" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="84" t="s">
+      <c r="S10" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="88" t="s">
+      <c r="T10" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="88" t="s">
+      <c r="U10" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="V10" s="47"/>
+      <c r="V10" s="45"/>
       <c r="W10" s="3">
         <v>23</v>
       </c>
       <c r="X10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="83" t="s">
+      <c r="Y10" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="Z10" s="84" t="s">
+      <c r="Z10" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="AA10" s="84" t="s">
+      <c r="AA10" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AB10" s="84" t="s">
+      <c r="AB10" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="47"/>
+      <c r="AC10" s="45"/>
       <c r="AE10" s="4" t="s">
         <v>20</v>
       </c>
@@ -2270,19 +2276,19 @@
         <f>COUNTIF($U$4:$V$18,"主藤")+COUNTIF($AB$3:$AC$18,"主藤")</f>
         <v>0</v>
       </c>
-      <c r="AL10" s="40" t="s">
+      <c r="AL10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AM10" s="40" t="s">
+      <c r="AM10" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AN10" s="40" t="s">
+      <c r="AN10" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AO10" s="40" t="s">
+      <c r="AO10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AP10" s="40" t="s">
+      <c r="AP10" s="39" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2293,23 +2299,27 @@
       <c r="C11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="3">
+        <v>24</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
       <c r="M11" s="1"/>
@@ -2321,64 +2331,68 @@
       <c r="Q11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R11" s="83" t="s">
+      <c r="R11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="S11" s="84" t="s">
+      <c r="S11" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="84" t="s">
+      <c r="T11" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="U11" s="84" t="s">
+      <c r="U11" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="89" t="s">
+      <c r="V11" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="44"/>
+      <c r="W11" s="3">
+        <v>24</v>
+      </c>
+      <c r="X11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="42"/>
       <c r="AB11" s="32"/>
-      <c r="AC11" s="47"/>
+      <c r="AC11" s="45"/>
       <c r="AE11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AF11" s="24">
         <f>COUNTIF($P$3:$AC$18,"上田")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG11" s="24">
         <f>COUNTIF($B$3:$O$18,"上田")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI11" s="24">
         <f>COUNTIF($R$4:$T$18,"上田")+COUNTIF($Y$3:$AA$18,"上田")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ11" s="24">
         <f>COUNTIF($U$4:$V$18,"上田")+COUNTIF($AB$3:$AC$18,"上田")</f>
-        <v>5</v>
-      </c>
-      <c r="AL11" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL11" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AM11" s="40" t="s">
+      <c r="AM11" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AN11" s="40" t="s">
+      <c r="AN11" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AO11" s="40" t="s">
+      <c r="AO11" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AP11" s="40" t="s">
+      <c r="AP11" s="39" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2389,13 +2403,17 @@
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="13"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="3">
+        <v>25</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
       <c r="M12" s="1"/>
@@ -2407,34 +2425,46 @@
       <c r="Q12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="83" t="s">
+      <c r="R12" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="S12" s="84" t="s">
+      <c r="S12" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="T12" s="84" t="s">
+      <c r="T12" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="V12" s="89" t="s">
+      <c r="V12" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="W12" s="3"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="47"/>
+      <c r="W12" s="3">
+        <v>25</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA12" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB12" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="45"/>
       <c r="AE12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AF12" s="24">
         <f>COUNTIF($P$3:$AC$18,"藤原")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG12" s="24">
         <f>COUNTIF($B$3:$O$18,"藤原")</f>
@@ -2442,29 +2472,29 @@
       </c>
       <c r="AH12" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI12" s="24">
         <f>COUNTIF($R$4:$T$18,"藤原")+COUNTIF($Y$3:$AA$18,"藤原")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ12" s="24">
         <f>COUNTIF($U$4:$V$18,"藤原")+COUNTIF($AB$3:$AC$18,"藤原")</f>
-        <v>1</v>
-      </c>
-      <c r="AL12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AM12" s="40" t="s">
+      <c r="AM12" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AN12" s="40" t="s">
+      <c r="AN12" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AO12" s="40" t="s">
+      <c r="AO12" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AP12" s="40" t="s">
+      <c r="AP12" s="39" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2475,23 +2505,25 @@
       <c r="C13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="13"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="3">
+        <v>26</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>1</v>
+      </c>
       <c r="K13" s="12"/>
       <c r="L13" s="1"/>
       <c r="M13" s="15"/>
@@ -2503,64 +2535,76 @@
       <c r="Q13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R13" s="83" t="s">
+      <c r="R13" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="84" t="s">
+      <c r="S13" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="T13" s="84" t="s">
+      <c r="T13" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="U13" s="84" t="s">
+      <c r="U13" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="V13" s="89" t="s">
+      <c r="V13" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="47"/>
+      <c r="W13" s="3">
+        <v>26</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC13" s="45"/>
       <c r="AE13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AF13" s="24">
         <f>COUNTIF($P$3:$AC$18,"川上")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG13" s="24">
         <f>COUNTIF($B$3:$O$18,"川上")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH13" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI13" s="24">
         <f>COUNTIF($R$4:$T$18,"川上")+COUNTIF($Y$3:$AA$18,"川上")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ13" s="24">
         <f>COUNTIF($U$4:$V$18,"川上")+COUNTIF($AB$3:$AC$18,"川上")</f>
         <v>3</v>
       </c>
-      <c r="AL13" s="40" t="s">
+      <c r="AL13" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AM13" s="40" t="s">
+      <c r="AM13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AN13" s="40" t="s">
+      <c r="AN13" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AO13" s="40" t="s">
+      <c r="AO13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AP13" s="40" t="s">
+      <c r="AP13" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2571,23 +2615,25 @@
       <c r="C14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="66" t="s">
+      <c r="D14" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="13"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="3">
+        <v>27</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="1"/>
       <c r="M14" s="15"/>
@@ -2599,34 +2645,46 @@
       <c r="Q14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="83" t="s">
+      <c r="R14" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="84" t="s">
+      <c r="S14" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="T14" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="U14" s="84" t="s">
+      <c r="T14" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="V14" s="89" t="s">
+      <c r="V14" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="3"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="47"/>
+      <c r="W14" s="3">
+        <v>27</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB14" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC14" s="45"/>
       <c r="AE14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AF14" s="24">
         <f>COUNTIF($P$3:$AC$18,"北原")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG14" s="24">
         <f>COUNTIF($B$3:$O$18,"北原")</f>
@@ -2634,29 +2692,29 @@
       </c>
       <c r="AH14" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI14" s="24">
         <f>COUNTIF($R$4:$T$18,"北原")+COUNTIF($Y$3:$AA$18,"北原")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ14" s="24">
         <f>COUNTIF($U$4:$V$18,"北原")+COUNTIF($AB$3:$AC$18,"北原")</f>
-        <v>2</v>
-      </c>
-      <c r="AL14" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AM14" s="40" t="s">
+      <c r="AM14" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AN14" s="40" t="s">
+      <c r="AN14" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AO14" s="40" t="s">
+      <c r="AO14" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AP14" s="40" t="s">
+      <c r="AP14" s="39" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2667,23 +2725,27 @@
       <c r="C15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="3">
+        <v>28</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
       <c r="M15" s="14"/>
@@ -2695,34 +2757,46 @@
       <c r="Q15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="R15" s="83" t="s">
+      <c r="R15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="84" t="s">
+      <c r="S15" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="T15" s="84" t="s">
+      <c r="T15" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="U15" s="84" t="s">
+      <c r="U15" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="V15" s="89" t="s">
+      <c r="V15" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="47"/>
+      <c r="W15" s="3">
+        <v>28</v>
+      </c>
+      <c r="X15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y15" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB15" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC15" s="45"/>
       <c r="AE15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF15" s="24">
         <f>COUNTIF($P$3:$AC$18,"景山")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG15" s="24">
         <f>COUNTIF($B$3:$O$18,"景山")</f>
@@ -2730,7 +2804,7 @@
       </c>
       <c r="AH15" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI15" s="24">
         <f>COUNTIF($R$4:$T$18,"景山")+COUNTIF($Y$3:$AA$18,"景山")</f>
@@ -2738,21 +2812,21 @@
       </c>
       <c r="AJ15" s="24">
         <f>COUNTIF($U$4:$V$18,"北原")+COUNTIF($AB$3:$AC$18,"北原")</f>
-        <v>2</v>
-      </c>
-      <c r="AL15" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AM15" s="40" t="s">
+      <c r="AM15" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AN15" s="40" t="s">
+      <c r="AN15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AO15" s="40" t="s">
+      <c r="AO15" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AP15" s="40" t="s">
+      <c r="AP15" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2763,92 +2837,120 @@
       <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="71" t="s">
+      <c r="G16" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="13"/>
+      <c r="I16" s="3">
+        <v>29</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="92" t="s">
+        <v>8</v>
+      </c>
       <c r="P16" s="3">
         <v>13</v>
       </c>
       <c r="Q16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R16" s="83" t="s">
+      <c r="R16" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="S16" s="84" t="s">
+      <c r="S16" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="T16" s="84" t="s">
+      <c r="T16" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="U16" s="84" t="s">
+      <c r="U16" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="V16" s="89" t="s">
+      <c r="V16" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="48"/>
+      <c r="W16" s="3">
+        <v>29</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z16" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA16" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC16" s="98" t="s">
+        <v>22</v>
+      </c>
       <c r="AE16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="AF16" s="24">
         <f>COUNTIF($P$3:$AC$18,"橋本")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG16" s="24">
         <f>COUNTIF($B$3:$O$18,"橋本")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH16" s="24">
         <f>SUM(AF16:AG16)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI16" s="24">
         <f>COUNTIF($R$4:$T$18,"橋本")+COUNTIF($Y$3:$AA$18,"橋本")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ16" s="24">
         <f>COUNTIF($U$4:$V$18,"北原")+COUNTIF($AB$3:$AC$18,"北原")</f>
-        <v>2</v>
-      </c>
-      <c r="AL16" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AM16" s="40" t="s">
+      <c r="AM16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AN16" s="40" t="s">
+      <c r="AN16" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AO16" s="40" t="s">
+      <c r="AO16" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AP16" s="40" t="s">
+      <c r="AP16" s="39" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2859,27 +2961,31 @@
       <c r="C17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="E17" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F17" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="78" t="s">
+      <c r="G17" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="79" t="s">
+      <c r="H17" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="3">
+        <v>30</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="K17" s="16"/>
       <c r="L17" s="2"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="55"/>
+      <c r="N17" s="47"/>
       <c r="O17" s="17"/>
       <c r="P17" s="16">
         <v>14</v>
@@ -2887,34 +2993,46 @@
       <c r="Q17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="R17" s="83" t="s">
+      <c r="R17" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="S17" s="84" t="s">
+      <c r="S17" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="T17" s="84" t="s">
+      <c r="T17" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="84" t="s">
+      <c r="U17" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="V17" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="47"/>
+      <c r="V17" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="3">
+        <v>30</v>
+      </c>
+      <c r="X17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z17" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB17" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="45"/>
       <c r="AE17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="AF17" s="24">
         <f>COUNTIF($P$3:$AC$18,"森本")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG17" s="24">
         <f>COUNTIF($B$3:$O$18,"森本")</f>
@@ -2922,29 +3040,29 @@
       </c>
       <c r="AH17" s="24">
         <f t="shared" ref="AH17" si="1">SUM(AF17:AG17)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI17" s="24">
         <f>COUNTIF($R$4:$T$18,"森本")+COUNTIF($Y$3:$AA$18,"森本")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ17" s="24">
         <f>COUNTIF($U$4:$V$18,"森本")+COUNTIF($AB$3:$AC$18,"森本")</f>
         <v>2</v>
       </c>
-      <c r="AL17" s="40" t="s">
+      <c r="AL17" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AM17" s="40" t="s">
+      <c r="AM17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AN17" s="40" t="s">
+      <c r="AN17" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AO17" s="40" t="s">
+      <c r="AO17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AP17" s="40" t="s">
+      <c r="AP17" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2955,13 +3073,27 @@
       <c r="C18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="13"/>
+      <c r="D18" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
+        <v>31</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="K18" s="18"/>
       <c r="L18" s="19"/>
       <c r="M18" s="20"/>
@@ -2973,136 +3105,140 @@
       <c r="Q18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="90" t="s">
+      <c r="R18" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="S18" s="91" t="s">
+      <c r="S18" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="T18" s="91" t="s">
+      <c r="T18" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="91" t="s">
+      <c r="U18" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="V18" s="92" t="s">
+      <c r="V18" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="W18" s="18"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="46"/>
+      <c r="W18" s="3">
+        <v>31</v>
+      </c>
+      <c r="X18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="44"/>
       <c r="AA18" s="35"/>
       <c r="AB18" s="36"/>
       <c r="AC18" s="37"/>
       <c r="AD18" s="25"/>
-      <c r="AL18" s="40" t="s">
+      <c r="AL18" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AM18" s="40" t="s">
+      <c r="AM18" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AN18" s="40" t="s">
+      <c r="AN18" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AO18" s="40" t="s">
+      <c r="AO18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AP18" s="40"/>
+      <c r="AP18" s="39"/>
     </row>
     <row r="19" spans="2:42" ht="40.25" customHeight="1">
       <c r="J19" s="22"/>
-      <c r="AL19" s="40" t="s">
+      <c r="AL19" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AM19" s="40" t="s">
+      <c r="AM19" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AN19" s="40" t="s">
+      <c r="AN19" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AO19" s="40" t="s">
+      <c r="AO19" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AP19" s="40"/>
+      <c r="AP19" s="39"/>
     </row>
     <row r="20" spans="2:42" ht="40.25" customHeight="1">
       <c r="J20" s="22"/>
-      <c r="AL20" s="40" t="s">
+      <c r="AL20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AM20" s="40" t="s">
+      <c r="AM20" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AN20" s="40" t="s">
+      <c r="AN20" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AO20" s="40" t="s">
+      <c r="AO20" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AP20" s="40"/>
+      <c r="AP20" s="39"/>
     </row>
     <row r="21" spans="2:42" ht="40.25" customHeight="1">
-      <c r="AL21" s="40" t="s">
+      <c r="AL21" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AM21" s="40" t="s">
+      <c r="AM21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AN21" s="40" t="s">
+      <c r="AN21" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AO21" s="40" t="s">
+      <c r="AO21" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AP21" s="40"/>
+      <c r="AP21" s="39"/>
     </row>
     <row r="22" spans="2:42" ht="40.25" customHeight="1">
-      <c r="AL22" s="40" t="s">
+      <c r="AL22" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AM22" s="40" t="s">
+      <c r="AM22" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AN22" s="40" t="s">
+      <c r="AN22" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AO22" s="40" t="s">
+      <c r="AO22" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AP22" s="40"/>
+      <c r="AP22" s="39"/>
     </row>
     <row r="23" spans="2:42">
-      <c r="AL23" s="40" t="s">
+      <c r="AL23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AM23" s="40" t="s">
+      <c r="AM23" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AN23" s="40" t="s">
+      <c r="AN23" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AO23" s="40" t="s">
+      <c r="AO23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AP23" s="40" t="s">
+      <c r="AP23" s="39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:42">
-      <c r="AL24" s="40" t="s">
+      <c r="AL24" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AM24" s="40" t="s">
+      <c r="AM24" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AN24" s="40" t="s">
+      <c r="AN24" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AO24" s="40" t="s">
+      <c r="AO24" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AP24" s="40"/>
+      <c r="AP24" s="39"/>
     </row>
   </sheetData>
   <dataConsolidate/>
